--- a/examples/rdbms/artifact/script/rdbms.xlsx
+++ b/examples/rdbms/artifact/script/rdbms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/rdbms/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFE8535-977D-E246-810C-79481BAB27D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09380F94-AD49-9D49-BADB-C4A7C790FF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-21140" windowWidth="25600" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1767,9 +1767,6 @@
     <t>(empty)</t>
   </si>
   <si>
-    <t>${example1.outFiles}</t>
-  </si>
-  <si>
     <t>Show Output</t>
   </si>
   <si>
@@ -1780,6 +1777,9 @@
   </si>
   <si>
     <t>${example2.outPath}</t>
+  </si>
+  <si>
+    <t>[TEXT(${example1.outFiles}) =&gt; replace(\,,\n)]</t>
   </si>
 </sst>
 </file>
@@ -4406,7 +4406,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4415,7 +4415,9 @@
     <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="45.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -4568,7 +4570,7 @@
     </row>
     <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4597,7 +4599,7 @@
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4636,7 +4638,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4664,10 +4666,10 @@
         <v>557</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>

--- a/examples/rdbms/artifact/script/rdbms.xlsx
+++ b/examples/rdbms/artifact/script/rdbms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/rdbms/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09380F94-AD49-9D49-BADB-C4A7C790FF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463FD9B-5C18-3D43-9C88-7B3FFF864377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-21140" windowWidth="25600" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13340" yWindow="460" windowWidth="36340" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -4406,7 +4406,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/examples/rdbms/artifact/script/rdbms.xlsx
+++ b/examples/rdbms/artifact/script/rdbms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/rdbms/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463FD9B-5C18-3D43-9C88-7B3FFF864377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50697427-00E6-EC49-979F-0A900D9B8094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="460" windowWidth="36340" windowHeight="21140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1780,6 +1780,12 @@
   </si>
   <si>
     <t>[TEXT(${example1.outFiles}) =&gt; replace(\,,\n)]</t>
+  </si>
+  <si>
+    <t>${nexial.lastOutputPath}</t>
+  </si>
+  <si>
+    <t>${nexial.lastOutputLink}</t>
   </si>
 </sst>
 </file>
@@ -4406,7 +4412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4683,9 +4689,15 @@
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>568</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -4700,9 +4712,15 @@
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>569</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
